--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.196272</v>
+        <v>0.104012</v>
       </c>
       <c r="N2">
-        <v>0.588816</v>
+        <v>0.312036</v>
       </c>
       <c r="O2">
-        <v>0.02813229386822481</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P2">
-        <v>0.03089009369338271</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q2">
-        <v>5.444174351856</v>
+        <v>3.866467858102666</v>
       </c>
       <c r="R2">
-        <v>48.997569166704</v>
+        <v>34.798210722924</v>
       </c>
       <c r="S2">
-        <v>0.0001531092522086195</v>
+        <v>7.537920800465568E-05</v>
       </c>
       <c r="T2">
-        <v>0.000168545448229923</v>
+        <v>8.420236747502574E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6892151609068061</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P3">
-        <v>0.7567787040415452</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q3">
-        <v>133.3772325674881</v>
+        <v>178.7470906057748</v>
       </c>
       <c r="R3">
-        <v>1200.395093107393</v>
+        <v>1608.723815451973</v>
       </c>
       <c r="S3">
-        <v>0.003751034963290865</v>
+        <v>0.003484786274574524</v>
       </c>
       <c r="T3">
-        <v>0.004129207478281838</v>
+        <v>0.003892681579322604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03080033333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N4">
-        <v>0.092401</v>
+        <v>4.347989</v>
       </c>
       <c r="O4">
-        <v>0.004414710343669059</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P4">
-        <v>0.004847482995302872</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q4">
-        <v>0.8543367610354443</v>
+        <v>80.81452003559183</v>
       </c>
       <c r="R4">
-        <v>7.689030849319</v>
+        <v>484.887120213551</v>
       </c>
       <c r="S4">
-        <v>2.40269422252939E-05</v>
+        <v>0.001575529589052008</v>
       </c>
       <c r="T4">
-        <v>2.644929479140023E-05</v>
+        <v>0.001173297207871431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.868607</v>
+        <v>0.047446</v>
       </c>
       <c r="N5">
-        <v>3.737214</v>
+        <v>0.142338</v>
       </c>
       <c r="O5">
-        <v>0.267833421212511</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P5">
-        <v>0.1960593642364025</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q5">
-        <v>51.83124593981099</v>
+        <v>1.763723743371333</v>
       </c>
       <c r="R5">
-        <v>310.987475638866</v>
+        <v>15.873513690342</v>
       </c>
       <c r="S5">
-        <v>0.001457676186322002</v>
+        <v>3.438489696370508E-05</v>
       </c>
       <c r="T5">
-        <v>0.001069757630161449</v>
+        <v>3.840965972407099E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>135.476761</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.072589</v>
+        <v>0.104012</v>
       </c>
       <c r="N6">
-        <v>0.217767</v>
+        <v>0.312036</v>
       </c>
       <c r="O6">
-        <v>0.01040441366878908</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P6">
-        <v>0.01142435503336674</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q6">
-        <v>2.013466882830333</v>
+        <v>4.697069621710667</v>
       </c>
       <c r="R6">
-        <v>18.121201945473</v>
+        <v>42.273626595396</v>
       </c>
       <c r="S6">
-        <v>5.662574136184216E-05</v>
+        <v>9.157230863442917E-05</v>
       </c>
       <c r="T6">
-        <v>6.233464549992808E-05</v>
+        <v>0.0001022908755116722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.196272</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N7">
-        <v>0.588816</v>
+        <v>14.425447</v>
       </c>
       <c r="O7">
-        <v>0.02813229386822481</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P7">
-        <v>0.03089009369338271</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q7">
-        <v>8.863431611664</v>
+        <v>217.1458706152408</v>
       </c>
       <c r="R7">
-        <v>79.77088450497601</v>
+        <v>1954.312835537167</v>
       </c>
       <c r="S7">
-        <v>0.0002492707430652856</v>
+        <v>0.004233394495742801</v>
       </c>
       <c r="T7">
-        <v>0.0002744017655007483</v>
+        <v>0.004728914622919233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.808482333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N8">
-        <v>14.425447</v>
+        <v>4.347989</v>
       </c>
       <c r="O8">
-        <v>0.6892151609068061</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P8">
-        <v>0.7567787040415452</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q8">
-        <v>217.1458706152408</v>
+        <v>98.17524443060483</v>
       </c>
       <c r="R8">
-        <v>1954.312835537167</v>
+        <v>589.051466583629</v>
       </c>
       <c r="S8">
-        <v>0.006106902483524385</v>
+        <v>0.001913987764138287</v>
       </c>
       <c r="T8">
-        <v>0.006722589272264124</v>
+        <v>0.001425347080225103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03080033333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>0.092401</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.004414710343669059</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P9">
-        <v>0.004847482995302872</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q9">
-        <v>1.390909799240111</v>
+        <v>2.142610134135333</v>
       </c>
       <c r="R9">
-        <v>12.518188193161</v>
+        <v>19.283491207218</v>
       </c>
       <c r="S9">
-        <v>3.91172555263027E-05</v>
+        <v>4.177152401135567E-05</v>
       </c>
       <c r="T9">
-        <v>4.306098600247724E-05</v>
+        <v>4.666089373848017E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.15892033333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H10">
-        <v>135.476761</v>
+        <v>7126.79358</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.868607</v>
+        <v>0.104012</v>
       </c>
       <c r="N10">
-        <v>3.737214</v>
+        <v>0.312036</v>
       </c>
       <c r="O10">
-        <v>0.267833421212511</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P10">
-        <v>0.1960593642364025</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q10">
-        <v>84.384274647309</v>
+        <v>247.09068461432</v>
       </c>
       <c r="R10">
-        <v>506.305647883854</v>
+        <v>2223.81616152888</v>
       </c>
       <c r="S10">
-        <v>0.002373181377817488</v>
+        <v>0.004817187364566742</v>
       </c>
       <c r="T10">
-        <v>0.001741627468774818</v>
+        <v>0.005381040626511321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.15892033333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H11">
-        <v>135.476761</v>
+        <v>7126.79358</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.072589</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N11">
-        <v>0.217767</v>
+        <v>14.425447</v>
       </c>
       <c r="O11">
-        <v>0.01040441366878908</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P11">
-        <v>0.01142435503336674</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q11">
-        <v>3.278040868076333</v>
+        <v>11423.02034091447</v>
       </c>
       <c r="R11">
-        <v>29.50236781268701</v>
+        <v>102807.1830682303</v>
       </c>
       <c r="S11">
-        <v>9.218999127927579E-05</v>
+        <v>0.2226989226135036</v>
       </c>
       <c r="T11">
-        <v>0.0001014844183374797</v>
+        <v>0.2487658999685481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.196272</v>
+        <v>2.1739945</v>
       </c>
       <c r="N12">
-        <v>0.588816</v>
+        <v>4.347989</v>
       </c>
       <c r="O12">
-        <v>0.02813229386822481</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P12">
-        <v>0.03089009369338271</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q12">
-        <v>512.793655410576</v>
+        <v>5164.53668185177</v>
       </c>
       <c r="R12">
-        <v>4615.142898695183</v>
+        <v>30987.22009111062</v>
       </c>
       <c r="S12">
-        <v>0.01442155376424919</v>
+        <v>0.1006858712075298</v>
       </c>
       <c r="T12">
-        <v>0.01587550855552069</v>
+        <v>0.07498078892379192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.808482333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N13">
-        <v>14.425447</v>
+        <v>0.142338</v>
       </c>
       <c r="O13">
-        <v>0.6892151609068061</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P13">
-        <v>0.7567787040415452</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q13">
-        <v>12562.96992279681</v>
+        <v>112.71261606556</v>
       </c>
       <c r="R13">
-        <v>113066.7293051713</v>
+        <v>1014.41354459004</v>
       </c>
       <c r="S13">
-        <v>0.3533147188320753</v>
+        <v>0.002197402912156613</v>
       </c>
       <c r="T13">
-        <v>0.3889352654576476</v>
+        <v>0.002454609598560322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>76.954105</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>153.90821</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03080033333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N14">
-        <v>0.092401</v>
+        <v>0.312036</v>
       </c>
       <c r="O14">
-        <v>0.004414710343669059</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P14">
-        <v>0.004847482995302872</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q14">
-        <v>80.47105811253877</v>
+        <v>8.00415036926</v>
       </c>
       <c r="R14">
-        <v>724.2395230128488</v>
+        <v>48.02490221556</v>
       </c>
       <c r="S14">
-        <v>0.002263128021946397</v>
+        <v>0.0001560459152196501</v>
       </c>
       <c r="T14">
-        <v>0.002491292468340988</v>
+        <v>0.0001162074250456453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>76.954105</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>153.90821</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.868607</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N15">
-        <v>3.737214</v>
+        <v>14.425447</v>
       </c>
       <c r="O15">
-        <v>0.267833421212511</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P15">
-        <v>0.1960593642364025</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q15">
-        <v>4882.05049143938</v>
+        <v>370.0324543699783</v>
       </c>
       <c r="R15">
-        <v>29292.30294863628</v>
+        <v>2220.19472621987</v>
       </c>
       <c r="S15">
-        <v>0.1373003602895593</v>
+        <v>0.007214014022636993</v>
       </c>
       <c r="T15">
-        <v>0.1007618217419562</v>
+        <v>0.005372277721168163</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>76.954105</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>153.90821</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.072589</v>
+        <v>2.1739945</v>
       </c>
       <c r="N16">
-        <v>0.217767</v>
+        <v>4.347989</v>
       </c>
       <c r="O16">
-        <v>0.01040441366878908</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P16">
-        <v>0.01142435503336674</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q16">
-        <v>189.6509876732203</v>
+        <v>167.2978010224225</v>
       </c>
       <c r="R16">
-        <v>1706.858889058983</v>
+        <v>669.19120408969</v>
       </c>
       <c r="S16">
-        <v>0.005333650068237369</v>
+        <v>0.003261575216657557</v>
       </c>
       <c r="T16">
-        <v>0.005871378956431336</v>
+        <v>0.001619263821535946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.196272</v>
+        <v>0.047446</v>
       </c>
       <c r="N17">
-        <v>0.588816</v>
+        <v>0.142338</v>
       </c>
       <c r="O17">
-        <v>0.02813229386822481</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P17">
-        <v>0.03089009369338271</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q17">
-        <v>7.601715051264001</v>
+        <v>3.65116446583</v>
       </c>
       <c r="R17">
-        <v>45.61029030758401</v>
+        <v>21.90698679498</v>
       </c>
       <c r="S17">
-        <v>0.0002137868539432891</v>
+        <v>7.118173377602124E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001568936368584708</v>
+        <v>5.300905173168179E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4655.195393666666</v>
+      </c>
+      <c r="H18">
+        <v>13965.586181</v>
+      </c>
+      <c r="I18">
+        <v>0.6474469929528313</v>
+      </c>
+      <c r="J18">
+        <v>0.6497650985763194</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>38.730512</v>
-      </c>
-      <c r="H18">
-        <v>77.46102400000001</v>
-      </c>
-      <c r="I18">
-        <v>0.007599339568422451</v>
-      </c>
-      <c r="J18">
-        <v>0.005079092294630385</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.808482333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N18">
-        <v>14.425447</v>
+        <v>0.312036</v>
       </c>
       <c r="O18">
-        <v>0.6892151609068061</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P18">
-        <v>0.7567787040415452</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q18">
-        <v>186.2349827129547</v>
+        <v>484.1961832860572</v>
       </c>
       <c r="R18">
-        <v>1117.409896277728</v>
+        <v>4357.765649574515</v>
       </c>
       <c r="S18">
-        <v>0.005237580043435738</v>
+        <v>0.009439707286973378</v>
       </c>
       <c r="T18">
-        <v>0.003843748884437781</v>
+        <v>0.01054462792691213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>13965.586181</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03080033333333333</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N19">
-        <v>0.092401</v>
+        <v>14.425447</v>
       </c>
       <c r="O19">
-        <v>0.004414710343669059</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P19">
-        <v>0.004847482995302872</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q19">
-        <v>1.192912679770667</v>
+        <v>22384.42480866087</v>
       </c>
       <c r="R19">
-        <v>7.157476078624001</v>
+        <v>201459.8232779479</v>
       </c>
       <c r="S19">
-        <v>3.354888299776816E-05</v>
+        <v>0.4363983552017981</v>
       </c>
       <c r="T19">
-        <v>2.462081352979463E-05</v>
+        <v>0.4874789168377714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>13965.586181</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.868607</v>
+        <v>2.1739945</v>
       </c>
       <c r="N20">
-        <v>3.737214</v>
+        <v>4.347989</v>
       </c>
       <c r="O20">
-        <v>0.267833421212511</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P20">
-        <v>0.1960593642364025</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q20">
-        <v>72.372105836784</v>
+        <v>10120.36918225667</v>
       </c>
       <c r="R20">
-        <v>289.488423347136</v>
+        <v>60722.21509354001</v>
       </c>
       <c r="S20">
-        <v>0.002035357115566191</v>
+        <v>0.1973029239269512</v>
       </c>
       <c r="T20">
-        <v>0.0009958036061832438</v>
+        <v>0.1469315278855861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>13965.586181</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.072589</v>
+        <v>0.047446</v>
       </c>
       <c r="N21">
-        <v>0.217767</v>
+        <v>0.142338</v>
       </c>
       <c r="O21">
-        <v>0.01040441366878908</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P21">
-        <v>0.01142435503336674</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q21">
-        <v>2.811409135568</v>
+        <v>220.8704006479086</v>
       </c>
       <c r="R21">
-        <v>16.868454813408</v>
+        <v>1987.833605831178</v>
       </c>
       <c r="S21">
-        <v>7.906667247946428E-05</v>
+        <v>0.004306006537108592</v>
       </c>
       <c r="T21">
-        <v>5.802535362109488E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2372.267130666667</v>
-      </c>
-      <c r="H22">
-        <v>7116.801392</v>
-      </c>
-      <c r="I22">
-        <v>0.4654641145188886</v>
-      </c>
-      <c r="J22">
-        <v>0.4666461821176285</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.196272</v>
-      </c>
-      <c r="N22">
-        <v>0.588816</v>
-      </c>
-      <c r="O22">
-        <v>0.02813229386822481</v>
-      </c>
-      <c r="P22">
-        <v>0.03089009369338271</v>
-      </c>
-      <c r="Q22">
-        <v>465.609614270208</v>
-      </c>
-      <c r="R22">
-        <v>4190.486528431872</v>
-      </c>
-      <c r="S22">
-        <v>0.01309457325475842</v>
-      </c>
-      <c r="T22">
-        <v>0.01441474428727288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2372.267130666667</v>
-      </c>
-      <c r="H23">
-        <v>7116.801392</v>
-      </c>
-      <c r="I23">
-        <v>0.4654641145188886</v>
-      </c>
-      <c r="J23">
-        <v>0.4666461821176285</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.808482333333333</v>
-      </c>
-      <c r="N23">
-        <v>14.425447</v>
-      </c>
-      <c r="O23">
-        <v>0.6892151609068061</v>
-      </c>
-      <c r="P23">
-        <v>0.7567787040415452</v>
-      </c>
-      <c r="Q23">
-        <v>11407.00458775802</v>
-      </c>
-      <c r="R23">
-        <v>102663.0412898222</v>
-      </c>
-      <c r="S23">
-        <v>0.3208049245844798</v>
-      </c>
-      <c r="T23">
-        <v>0.3531478929489138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2372.267130666667</v>
-      </c>
-      <c r="H24">
-        <v>7116.801392</v>
-      </c>
-      <c r="I24">
-        <v>0.4654641145188886</v>
-      </c>
-      <c r="J24">
-        <v>0.4666461821176285</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.092401</v>
-      </c>
-      <c r="O24">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P24">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q24">
-        <v>73.06661838024355</v>
-      </c>
-      <c r="R24">
-        <v>657.599565422192</v>
-      </c>
-      <c r="S24">
-        <v>0.002054889240973297</v>
-      </c>
-      <c r="T24">
-        <v>0.002262059432638211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2372.267130666667</v>
-      </c>
-      <c r="H25">
-        <v>7116.801392</v>
-      </c>
-      <c r="I25">
-        <v>0.4654641145188886</v>
-      </c>
-      <c r="J25">
-        <v>0.4666461821176285</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.868607</v>
-      </c>
-      <c r="N25">
-        <v>3.737214</v>
-      </c>
-      <c r="O25">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P25">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q25">
-        <v>4432.834966233648</v>
-      </c>
-      <c r="R25">
-        <v>26597.00979740189</v>
-      </c>
-      <c r="S25">
-        <v>0.1246668462432459</v>
-      </c>
-      <c r="T25">
-        <v>0.09149035378932674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2372.267130666667</v>
-      </c>
-      <c r="H26">
-        <v>7116.801392</v>
-      </c>
-      <c r="I26">
-        <v>0.4654641145188886</v>
-      </c>
-      <c r="J26">
-        <v>0.4666461821176285</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.072589</v>
-      </c>
-      <c r="N26">
-        <v>0.217767</v>
-      </c>
-      <c r="O26">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P26">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q26">
-        <v>172.2004987479627</v>
-      </c>
-      <c r="R26">
-        <v>1549.804488731664</v>
-      </c>
-      <c r="S26">
-        <v>0.004842881195431132</v>
-      </c>
-      <c r="T26">
-        <v>0.005331131659476904</v>
+        <v>0.00481002592604962</v>
       </c>
     </row>
   </sheetData>
